--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debu Rupa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E11B8-3A06-491A-A47E-CE20E9EF7BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8A1395-0926-45C7-A11C-ED6BF2237332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{83803EEC-2763-4B2D-BCBF-51AC6B685EAD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{83803EEC-2763-4B2D-BCBF-51AC6B685EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Organization" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateMultipleContacts" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>TC_ID</t>
   </si>
@@ -107,6 +109,30 @@
   </si>
   <si>
     <t>Partner</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Dharmpal</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Pritish</t>
+  </si>
+  <si>
+    <t>Harshitha</t>
+  </si>
+  <si>
+    <t>Abhilasha</t>
+  </si>
+  <si>
+    <t>Renuka</t>
   </si>
 </sst>
 </file>
@@ -148,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,15 +182,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAC90A1-473E-414C-A606-6295A891B118}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -653,4 +696,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED216A36-DB99-4BB3-9860-CCB652D3BEC3}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A957677-DD62-422D-B9FD-0AE1EE2A76DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>